--- a/02_NodeJs/04_Web_Scrapping/02_Scrapping_IPL/ipl/Delhi Capitals/Batting/Tom Curran.xlsx
+++ b/02_NodeJs/04_Web_Scrapping/02_Scrapping_IPL/ipl/Delhi Capitals/Batting/Tom Curran.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tom Curran" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,90 +397,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>matchNo</v>
+      </c>
+      <c r="B1" t="str">
         <v>teamName</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>batterName</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>states</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>runs</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>balls</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>fours</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>sixes</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>sr</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>opponentTeamName</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>venue</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>date</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>result</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Qualifier</v>
+      </c>
+      <c r="B2" t="str">
         <v>Delhi Capitals</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Tom Curran</v>
       </c>
-      <c r="C2" t="str">
-        <v>b Mustafizur Rahman</v>
-      </c>
       <c r="D2" t="str">
-        <v>21</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
         <v>0</v>
       </c>
       <c r="H2" t="str">
+        <v>0</v>
+      </c>
+      <c r="I2" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="L2" t="str">
+        <v>October 10</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Super Kings won by 4 wickets (with 2 balls remaining)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>7th</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Tom Curran</v>
+      </c>
+      <c r="D3" t="str">
+        <v>b Mustafizur Rahman</v>
+      </c>
+      <c r="E3" t="str">
+        <v>21</v>
+      </c>
+      <c r="F3" t="str">
+        <v>16</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2</v>
+      </c>
+      <c r="H3" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
         <v>131.25</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J3" t="str">
         <v>Rajasthan Royals</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K3" t="str">
         <v>Wankhede</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L3" t="str">
         <v>April 15</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M3" t="str">
         <v>Royals won by 3 wickets (with 2 balls remaining)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M3"/>
   </ignoredErrors>
 </worksheet>
 </file>